--- a/planning.xlsx
+++ b/planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\2025_2026\Dev202_26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE211538-0D28-46A4-A409-8039D10FCAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C24DCB0-A50C-41F4-9639-D7C735BCDBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94F0BB87-3E48-473B-942D-98824DCDEC0A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>DEV201</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>N.B. Ce planning est donné a titre indicatif pour estimer aproximativement des dates des  controles et des efm</t>
+  </si>
+  <si>
+    <t>60 h</t>
   </si>
 </sst>
 </file>
@@ -287,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,8 +363,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -505,28 +514,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -536,10 +543,12 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -547,66 +556,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -620,127 +573,43 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,9 +619,62 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6675AFBB-6A96-4B34-A155-68C8C20E19A3}">
-  <dimension ref="B1:AV2561"/>
+  <dimension ref="B1:AV2562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1132,449 +1054,451 @@
       <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="54" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="57" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="51" t="s">
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52" t="s">
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="54" t="s">
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="57" t="s">
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="51" t="s">
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="53" t="s">
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="54" t="s">
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="55"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15"/>
     </row>
     <row r="4" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AB4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AC4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AD4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AE4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AF4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AG4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AH4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AI4" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AJ4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AK4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AL4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AM4" s="8" t="s">
+      <c r="AM4" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AN4" s="8" t="s">
+      <c r="AN4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AO4" s="8" t="s">
+      <c r="AO4" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AP4" s="8" t="s">
+      <c r="AP4" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AQ4" s="5" t="s">
+      <c r="AQ4" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AR4" s="5" t="s">
+      <c r="AR4" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AS4" s="5" t="s">
+      <c r="AS4" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AT4" s="5" t="s">
+      <c r="AT4" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AU4" s="20" t="s">
+      <c r="AU4" s="36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="28" t="s">
+    <row r="5" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B5" s="44"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="21">
-        <v>45901</v>
-      </c>
-      <c r="F5" s="22">
+      <c r="E5" s="45">
+        <v>45908</v>
+      </c>
+      <c r="F5" s="45">
         <f>E5+7</f>
-        <v>45908</v>
-      </c>
-      <c r="G5" s="22">
+        <v>45915</v>
+      </c>
+      <c r="G5" s="45">
         <f>F5+7</f>
-        <v>45915</v>
-      </c>
-      <c r="H5" s="22">
+        <v>45922</v>
+      </c>
+      <c r="H5" s="45">
         <f>G5+7</f>
-        <v>45922</v>
-      </c>
-      <c r="I5" s="23">
+        <v>45929</v>
+      </c>
+      <c r="I5" s="46">
         <f t="shared" ref="I5:AU5" si="0">H5+7</f>
-        <v>45929</v>
-      </c>
-      <c r="J5" s="23">
-        <f t="shared" si="0"/>
         <v>45936</v>
       </c>
-      <c r="K5" s="23">
+      <c r="J5" s="46">
         <f t="shared" si="0"/>
         <v>45943</v>
       </c>
-      <c r="L5" s="23">
+      <c r="K5" s="46">
         <f t="shared" si="0"/>
         <v>45950</v>
       </c>
-      <c r="M5" s="24">
+      <c r="L5" s="46">
         <f t="shared" si="0"/>
         <v>45957</v>
       </c>
-      <c r="N5" s="24">
+      <c r="M5" s="47">
         <f t="shared" si="0"/>
         <v>45964</v>
       </c>
-      <c r="O5" s="24">
+      <c r="N5" s="47">
         <f t="shared" si="0"/>
         <v>45971</v>
       </c>
-      <c r="P5" s="24">
+      <c r="O5" s="47">
         <f t="shared" si="0"/>
         <v>45978</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="P5" s="47">
         <f t="shared" si="0"/>
         <v>45985</v>
       </c>
-      <c r="R5" s="25">
+      <c r="Q5" s="48">
         <f t="shared" si="0"/>
         <v>45992</v>
       </c>
-      <c r="S5" s="25">
+      <c r="R5" s="48">
         <f t="shared" si="0"/>
         <v>45999</v>
       </c>
-      <c r="T5" s="25">
+      <c r="S5" s="48">
         <f t="shared" si="0"/>
         <v>46006</v>
       </c>
-      <c r="U5" s="25">
+      <c r="T5" s="48">
         <f t="shared" si="0"/>
         <v>46013</v>
       </c>
-      <c r="V5" s="22">
+      <c r="U5" s="48">
         <f t="shared" si="0"/>
         <v>46020</v>
       </c>
-      <c r="W5" s="22">
+      <c r="V5" s="45">
         <f t="shared" si="0"/>
         <v>46027</v>
       </c>
-      <c r="X5" s="22">
+      <c r="W5" s="45">
         <f t="shared" si="0"/>
         <v>46034</v>
       </c>
-      <c r="Y5" s="22">
+      <c r="X5" s="45">
         <f t="shared" si="0"/>
         <v>46041</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Y5" s="45">
         <f t="shared" si="0"/>
         <v>46048</v>
       </c>
-      <c r="AA5" s="23">
+      <c r="Z5" s="46">
         <f t="shared" si="0"/>
         <v>46055</v>
       </c>
-      <c r="AB5" s="23">
+      <c r="AA5" s="46">
         <f t="shared" si="0"/>
         <v>46062</v>
       </c>
-      <c r="AC5" s="23">
+      <c r="AB5" s="46">
         <f t="shared" si="0"/>
         <v>46069</v>
       </c>
-      <c r="AD5" s="24">
+      <c r="AC5" s="46">
         <f t="shared" si="0"/>
         <v>46076</v>
       </c>
-      <c r="AE5" s="24">
+      <c r="AD5" s="47">
         <f t="shared" si="0"/>
         <v>46083</v>
       </c>
-      <c r="AF5" s="24">
+      <c r="AE5" s="47">
         <f t="shared" si="0"/>
         <v>46090</v>
       </c>
-      <c r="AG5" s="24">
+      <c r="AF5" s="47">
         <f t="shared" si="0"/>
         <v>46097</v>
       </c>
-      <c r="AH5" s="24">
+      <c r="AG5" s="47">
         <f t="shared" si="0"/>
         <v>46104</v>
       </c>
-      <c r="AI5" s="25">
+      <c r="AH5" s="47">
         <f t="shared" si="0"/>
         <v>46111</v>
       </c>
-      <c r="AJ5" s="25">
+      <c r="AI5" s="48">
         <f t="shared" si="0"/>
         <v>46118</v>
       </c>
-      <c r="AK5" s="25">
+      <c r="AJ5" s="48">
         <f t="shared" si="0"/>
         <v>46125</v>
       </c>
-      <c r="AL5" s="25">
+      <c r="AK5" s="48">
         <f t="shared" si="0"/>
         <v>46132</v>
       </c>
-      <c r="AM5" s="26">
+      <c r="AL5" s="48">
         <f t="shared" si="0"/>
         <v>46139</v>
       </c>
-      <c r="AN5" s="26">
+      <c r="AM5" s="49">
         <f t="shared" si="0"/>
         <v>46146</v>
       </c>
-      <c r="AO5" s="26">
+      <c r="AN5" s="49">
         <f t="shared" si="0"/>
         <v>46153</v>
       </c>
-      <c r="AP5" s="26">
+      <c r="AO5" s="49">
         <f t="shared" si="0"/>
         <v>46160</v>
       </c>
-      <c r="AQ5" s="23">
+      <c r="AP5" s="49">
         <f t="shared" si="0"/>
         <v>46167</v>
       </c>
-      <c r="AR5" s="23">
+      <c r="AQ5" s="46">
         <f t="shared" si="0"/>
         <v>46174</v>
       </c>
-      <c r="AS5" s="23">
+      <c r="AR5" s="46">
         <f t="shared" si="0"/>
         <v>46181</v>
       </c>
-      <c r="AT5" s="23">
+      <c r="AS5" s="46">
         <f t="shared" si="0"/>
         <v>46188</v>
       </c>
-      <c r="AU5" s="27">
+      <c r="AT5" s="46">
         <f t="shared" si="0"/>
         <v>46195</v>
+      </c>
+      <c r="AU5" s="50">
+        <f t="shared" si="0"/>
+        <v>46202</v>
       </c>
       <c r="AV5" s="1"/>
     </row>
     <row r="6" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12" t="s">
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12" t="s">
+      <c r="M6" s="23"/>
+      <c r="N6" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="14"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="7"/>
     </row>
-    <row r="7" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="49"/>
-      <c r="C7" s="29" t="s">
+    <row r="7" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B7" s="25"/>
+      <c r="C7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1585,56 +1509,56 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="10" t="s">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10" t="s">
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10" t="s">
+      <c r="X7" s="5"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="10" t="s">
+      <c r="AA7" s="5" t="s">
         <v>58</v>
       </c>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="9"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="21"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="9"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="21"/>
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
-      <c r="AU7" s="15"/>
+      <c r="AU7" s="7"/>
     </row>
     <row r="8" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B8" s="49"/>
-      <c r="C8" s="29" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1647,54 +1571,54 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="9"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="9"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="21"/>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30" t="s">
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="30" t="s">
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11" t="s">
         <v>56</v>
       </c>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="30"/>
-      <c r="AQ8" s="30" t="s">
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR8" s="30"/>
-      <c r="AS8" s="30" t="s">
+      <c r="AR8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="14"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="7"/>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B9" s="49"/>
-      <c r="C9" s="42" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1707,160 +1631,162 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="9"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="9"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="21"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="9"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="21"/>
       <c r="AH9" s="3"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="43"/>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="9"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="21"/>
       <c r="AO9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
-      <c r="AU9" s="15"/>
+      <c r="AU9" s="7"/>
     </row>
     <row r="10" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="50"/>
-      <c r="C10" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="40">
-        <v>60</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32"/>
-      <c r="AN10" s="33"/>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
-      <c r="AR10" s="46"/>
-      <c r="AS10" s="46"/>
-      <c r="AT10" s="46" t="s">
+      <c r="D10" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AU10" s="15"/>
+      <c r="AU10" s="10"/>
     </row>
     <row r="11" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12" t="s">
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12" t="s">
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12" t="s">
+      <c r="M11" s="40"/>
+      <c r="N11" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="11"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="14"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="43"/>
     </row>
     <row r="12" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B12" s="49"/>
-      <c r="C12" s="29" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1871,56 +1797,56 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="10" t="s">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10" t="s">
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10" t="s">
+      <c r="X12" s="5"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="10" t="s">
+      <c r="AA12" s="5" t="s">
         <v>58</v>
       </c>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="9"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="21"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="9"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="21"/>
       <c r="AO12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
+      <c r="AU12" s="7"/>
     </row>
     <row r="13" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B13" s="49"/>
-      <c r="C13" s="29" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1933,125 +1859,254 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="9"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="9"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="21"/>
       <c r="AA13" s="3"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30" t="s">
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="30" t="s">
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN13" s="9"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
       <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="30"/>
-      <c r="AS13" s="30" t="s">
+      <c r="AR13" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
+      <c r="AU13" s="7"/>
     </row>
-    <row r="14" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="50"/>
-      <c r="C14" s="35" t="s">
+    <row r="14" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B14" s="25"/>
+      <c r="C14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="34"/>
-      <c r="AP14" s="34"/>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="16"/>
-      <c r="AS14" s="16"/>
-      <c r="AT14" s="16"/>
-      <c r="AU14" s="18"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="7"/>
     </row>
-    <row r="15" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="S15"/>
-      <c r="Z15"/>
-      <c r="AG15"/>
-      <c r="AN15"/>
+    <row r="15" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="26"/>
+      <c r="C15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="29"/>
+      <c r="AS15" s="29"/>
+      <c r="AT15" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU15" s="10"/>
     </row>
     <row r="16" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B16" s="47" t="s">
-        <v>72</v>
-      </c>
       <c r="S16"/>
       <c r="Z16"/>
       <c r="AG16"/>
       <c r="AN16"/>
     </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="S17"/>
+      <c r="Z17"/>
+      <c r="AG17"/>
+      <c r="AN17"/>
+    </row>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="S18"/>
+      <c r="Z18"/>
+      <c r="AG18"/>
+      <c r="AN18"/>
+    </row>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="S19"/>
+      <c r="Z19"/>
+      <c r="AG19"/>
+      <c r="AN19"/>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="S20"/>
+      <c r="Z20"/>
+      <c r="AG20"/>
+      <c r="AN20"/>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="S21"/>
+      <c r="Z21"/>
+      <c r="AG21"/>
+      <c r="AN21"/>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="S22"/>
+      <c r="Z22"/>
+      <c r="AG22"/>
+      <c r="AN22"/>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="S23"/>
+      <c r="Z23"/>
+      <c r="AG23"/>
+      <c r="AN23"/>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="S24"/>
+      <c r="Z24"/>
+      <c r="AG24"/>
+      <c r="AN24"/>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="S25"/>
+      <c r="Z25"/>
+      <c r="AG25"/>
+      <c r="AN25"/>
+    </row>
+    <row r="26" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="S26"/>
+      <c r="Z26"/>
+      <c r="AG26"/>
+      <c r="AN26"/>
+    </row>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="S27"/>
+      <c r="Z27"/>
+      <c r="AG27"/>
+      <c r="AN27"/>
+    </row>
+    <row r="28" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="S28"/>
+      <c r="Z28"/>
+      <c r="AG28"/>
+      <c r="AN28"/>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="S29"/>
+      <c r="Z29"/>
+      <c r="AG29"/>
+      <c r="AN29"/>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="S30"/>
+      <c r="Z30"/>
+      <c r="AG30"/>
+      <c r="AN30"/>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="S31"/>
+      <c r="Z31"/>
+      <c r="AG31"/>
+      <c r="AN31"/>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="S32"/>
+      <c r="Z32"/>
+      <c r="AG32"/>
+      <c r="AN32"/>
+    </row>
     <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -4581,8 +4636,14 @@
     <row r="2559" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2560" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2561" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2562" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="B11:B15"/>
     <mergeCell ref="AQ3:AU3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:L3"/>
@@ -4590,11 +4651,6 @@
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AH3"/>
     <mergeCell ref="AI3:AL3"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="AM3:AP3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
